--- a/v3/docs/FightPandemics.xlsx
+++ b/v3/docs/FightPandemics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6225" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5879" uniqueCount="783">
   <si>
     <t>Instructions</t>
   </si>
@@ -405,7 +405,7 @@
     <t>document</t>
   </si>
   <si>
-    <t>c21b3bd8-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176260-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.id</t>
@@ -414,13 +414,13 @@
     <t>Foreign key to the user who created the post.</t>
   </si>
   <si>
-    <t>fa469f60-7fb2-11ea-ba73-c97a35e85484</t>
+    <t>4</t>
   </si>
   <si>
     <t>Foreign Key</t>
   </si>
   <si>
-    <t>c21b3bda-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176262-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.name</t>
@@ -429,13 +429,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>c21b3bdb-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176263-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.type</t>
   </si>
   <si>
-    <t>c21b3bdc-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176264-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location</t>
@@ -445,7 +445,7 @@
 The fields address, neighborhood, city, state and country are added to store the result of the geoprocessing.</t>
   </si>
   <si>
-    <t>c21b3bdd-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176265-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.coordinates</t>
@@ -457,7 +457,7 @@
     <t>Array with the coordinates, specifying **longitude first** and **latitude second**, as default in the [GeoJSON](https://docs.mongodb.com/manual/reference/geojson/) definition.</t>
   </si>
   <si>
-    <t>c21b3bde-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176266-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.coordinates.[0]</t>
@@ -479,7 +479,7 @@
     <t>degrees</t>
   </si>
   <si>
-    <t>c21b3bdf-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176267-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.coordinates.[1]</t>
@@ -492,7 +492,7 @@
 </t>
   </si>
   <si>
-    <t>c21b3be0-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176268-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.type</t>
@@ -506,7 +506,7 @@
     <t>Point</t>
   </si>
   <si>
-    <t>c21b3be1-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce176269-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.country</t>
@@ -516,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t>c21b3be2-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce17626a-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.city</t>
@@ -525,7 +525,7 @@
     <t>String holding the city's name.</t>
   </si>
   <si>
-    <t>c21b3be3-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce17626b-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.neighborhood</t>
@@ -534,7 +534,7 @@
     <t>String holding the neighborhood's name.</t>
   </si>
   <si>
-    <t>c21b3be4-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce17626c-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>author.location.address</t>
@@ -613,40 +613,40 @@
     <t>db65c2f0-82f1-11ea-821a-a1813ece7f73</t>
   </si>
   <si>
-    <t>c21b3be6-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e0-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e1-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e2-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e3-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e4-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e5-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e6-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e7-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e8-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62e9-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62ea-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178961-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178963-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178964-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178965-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178966-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178967-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178968-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178969-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17896a-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17896b-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17896c-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17896d-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>9693b43e-7fb2-11ea-ba73-c97a35e85484</t>
@@ -704,6 +704,9 @@
     <t>_id of the user who liked the post</t>
   </si>
   <si>
+    <t>fa469f60-7fb2-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
     <t>9693b43d-7fb2-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
@@ -814,49 +817,49 @@
     <t>location</t>
   </si>
   <si>
-    <t>c21b62ec-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce17896f-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.coordinates</t>
   </si>
   <si>
-    <t>c21b62ed-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178970-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.coordinates.[0]</t>
   </si>
   <si>
-    <t>c21b62ee-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178971-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.coordinates.[1]</t>
   </si>
   <si>
-    <t>c21b62ef-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178972-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.type</t>
   </si>
   <si>
-    <t>c21b62f0-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178973-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.country</t>
   </si>
   <si>
-    <t>c21b62f1-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178974-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.city</t>
   </si>
   <si>
-    <t>c21b62f2-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178975-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.neighborhood</t>
   </si>
   <si>
-    <t>c21b62f3-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178976-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>location.address</t>
@@ -1113,9 +1116,6 @@
   </si>
   <si>
     <t>_id of the user who owns the organization.</t>
-  </si>
-  <si>
-    <t>efec04b0-7fb2-11ea-ba73-c97a35e85484 | fa469f60-7fb2-11ea-ba73-c97a35e85484</t>
   </si>
   <si>
     <t>09b06ae7-82f0-11ea-821a-a1813ece7f73</t>
@@ -1419,28 +1419,28 @@
     <t>e6c7e3d0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
   </si>
   <si>
-    <t>c21b62f5-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62f6-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62f7-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62f8-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62f9-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62fa-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62fb-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b62fc-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178978-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce178979-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17897a-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17897b-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17897c-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17897d-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17897e-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17897f-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>e6c8e090-efa8-11ea-a722-4d53fdda74f6</t>
@@ -1469,13 +1469,13 @@
 * **blocked**: if the one of the user's blocked the other
 * **accepted**: message request was accepted and users exchange messages
 * **archived**: user archived the message thread
-* **deleted**: user deleted the conversation</t>
+</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>deleted | blocked | accepted | pending | archived</t>
+    <t>blocked | accepted | pending | archived</t>
   </si>
   <si>
     <t>79ee8e10-efa9-11ea-a722-4d53fdda74f6</t>
@@ -1500,6 +1500,9 @@
     <t>participants.[0].id</t>
   </si>
   <si>
+    <t>efec04b0-7fb2-11ea-ba73-c97a35e85484 | fa469f60-7fb2-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
     <t>adce9593-efa9-11ea-a722-4d53fdda74f6</t>
   </si>
   <si>
@@ -1518,60 +1521,6 @@
     <t>User's type</t>
   </si>
   <si>
-    <t>adce9595-efa9-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location</t>
-  </si>
-  <si>
-    <t>c21b62fe-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.coordinates</t>
-  </si>
-  <si>
-    <t>c21b62ff-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.coordinates.[0]</t>
-  </si>
-  <si>
-    <t>c21b89f0-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.coordinates.[1]</t>
-  </si>
-  <si>
-    <t>c21b89f1-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.type</t>
-  </si>
-  <si>
-    <t>c21b89f2-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.country</t>
-  </si>
-  <si>
-    <t>c21b89f3-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.city</t>
-  </si>
-  <si>
-    <t>c21b89f4-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.neighborhood</t>
-  </si>
-  <si>
-    <t>c21b89f5-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>participants.[0].location.address</t>
-  </si>
-  <si>
     <t>b7b90950-efa9-11ea-a722-4d53fdda74f6</t>
   </si>
   <si>
@@ -1590,6 +1539,15 @@
     <t>Timestamp with the last time the user accessed the message thread.</t>
   </si>
   <si>
+    <t>eb4659e0-f570-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>participants.[0].photo</t>
+  </si>
+  <si>
+    <t>URL with the user photo</t>
+  </si>
+  <si>
     <t>3e9cbe80-efaa-11ea-a722-4d53fdda74f6</t>
   </si>
   <si>
@@ -1608,6 +1566,15 @@
     <t>Timestamp with message's update date</t>
   </si>
   <si>
+    <t>16b917c0-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>authorId</t>
+  </si>
+  <si>
+    <t>ObjectId of the user who sent the message</t>
+  </si>
+  <si>
     <t>70677a90-efaa-11ea-a722-4d53fdda74f6</t>
   </si>
   <si>
@@ -1621,45 +1588,6 @@
   </si>
   <si>
     <t>Reference to the thread were the message was sent</t>
-  </si>
-  <si>
-    <t>967091e0-efaa-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89f7-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89f9-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89fa-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89fb-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89fc-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89fd-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89fe-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b89ff-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21bb100-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21bb101-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21bb102-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21bb103-f16f-11ea-a722-4d53fdda74f6</t>
   </si>
   <si>
     <t>aa756300-efaa-11ea-a722-4d53fdda74f6</t>
@@ -1686,55 +1614,55 @@
     <t>Optional post reference, allowing a post to be referenced in a message thread.</t>
   </si>
   <si>
-    <t>c21bb105-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178981-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.id</t>
   </si>
   <si>
-    <t>c21bb106-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178982-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.objective</t>
   </si>
   <si>
-    <t>c21bb107-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178983-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.title</t>
   </si>
   <si>
-    <t>c21bb108-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178984-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.content</t>
   </si>
   <si>
-    <t>c21bb109-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178985-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.author</t>
   </si>
   <si>
-    <t>c21bb10a-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178986-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.author.id</t>
   </si>
   <si>
-    <t>c21bb10c-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178988-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.author.name</t>
   </si>
   <si>
-    <t>c21bb10d-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce178989-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.author.type</t>
   </si>
   <si>
-    <t>c21bb10e-f16f-11ea-a722-4d53fdda74f6</t>
+    <t>ce17898a-f571-11ea-bd96-cde8cae0469c</t>
   </si>
   <si>
     <t>postRef.author.location</t>
@@ -1826,307 +1754,307 @@
     <t>Relation between an User and an Organization created by him/her. Initially projected as 1-N, with only one User owning the Organization, it is though to later on be evolved into N-N, with many Users being able to manage the Organization with different roles.</t>
   </si>
   <si>
+    <t>db833600-82f1-11ea-821a-a1813ece7f73</t>
+  </si>
+  <si>
+    <t>UserAuthorsPost</t>
+  </si>
+  <si>
+    <t>Relation between a User and the Post created by him/her.</t>
+  </si>
+  <si>
+    <t>96938d21-7fb2-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
+    <t>10f59d50-82f2-11ea-821a-a1813ece7f73</t>
+  </si>
+  <si>
+    <t>UserAuthorsComment</t>
+  </si>
+  <si>
+    <t>17776aa0-82f2-11ea-821a-a1813ece7f73</t>
+  </si>
+  <si>
+    <t>CommentReferencesPost</t>
+  </si>
+  <si>
+    <t>dda294d0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
+  </si>
+  <si>
+    <t>UserGivesFeedback</t>
+  </si>
+  <si>
+    <t>8ad49d90-efaa-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>ThreadHasMessages</t>
+  </si>
+  <si>
+    <t>1cc36b20-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>UserSentMessage</t>
+  </si>
+  <si>
+    <t>efec52d4-7fb2-11ea-ba73-c97a35e85484</t>
+  </si>
+  <si>
+    <t>d15d27a0-7fb6-11ea-b6ca-71d27d0acee3</t>
+  </si>
+  <si>
+    <t>d16bf4b0-7fb6-11ea-b6ca-71d27d0acee3</t>
+  </si>
+  <si>
+    <t>56d2cde0-7fb7-11ea-b6ca-71d27d0acee3</t>
+  </si>
+  <si>
+    <t>b6239c20-80e3-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>bd1653b0-80e3-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>c33a2280-80e3-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>e3b342c0-8134-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>ce5f8570-811e-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>a5ed67f0-811f-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>eb7fe190-811e-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>e2868490-811e-11ea-a764-5d61b98a5ce8</t>
+  </si>
+  <si>
+    <t>ce176251-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176252-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176253-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176254-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176255-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176256-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176257-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce176258-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>d117efa0-efb4-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>dd9961f0-efb4-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>780bf4f0-efb5-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>93978040-efb5-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>992e2a40-efb5-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>b6ab7370-efb5-11ea-a722-4d53fdda74f6</t>
+  </si>
+  <si>
+    <t>ce17625a-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17625c-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17625d-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>ce17625e-f571-11ea-bd96-cde8cae0469c</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>dbVendor</t>
+  </si>
+  <si>
+    <t>dbVersion</t>
+  </si>
+  <si>
+    <t>storageEngineName</t>
+  </si>
+  <si>
+    <t>validationLevel</t>
+  </si>
+  <si>
+    <t>validationAction</t>
+  </si>
+  <si>
+    <t>locale</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>caseFirst</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>maxVariable</t>
+  </si>
+  <si>
+    <t>relationshipType</t>
+  </si>
+  <si>
+    <t>parentCardinality</t>
+  </si>
+  <si>
+    <t>childCardinality</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>gridFS</t>
+  </si>
+  <si>
+    <t>refType</t>
+  </si>
+  <si>
+    <t>v2.6</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>1-Primary</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>non-ignorable</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>v3.0</t>
+  </si>
+  <si>
+    <t>MMAPv1</t>
+  </si>
+  <si>
+    <t>Strict</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>2-Secondary</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shifted</t>
+  </si>
+  <si>
+    <t>punct</t>
+  </si>
+  <si>
+    <t>date-time</t>
+  </si>
+  <si>
+    <t>integer32</t>
+  </si>
+  <si>
+    <t>chunks</t>
+  </si>
+  <si>
+    <t>v3.2</t>
+  </si>
+  <si>
+    <t>In-Memory</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>3-Tertiary</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>Foreign Master</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>allOf</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>v3.4</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>4-Quaternary</t>
+  </si>
+  <si>
+    <t>0..n</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>68a89cd0-8132-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>b4066f90-8132-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>db833600-82f1-11ea-821a-a1813ece7f73</t>
-  </si>
-  <si>
-    <t>UserAuthorsPost</t>
-  </si>
-  <si>
-    <t>Relation between a User and the Post created by him/her.</t>
-  </si>
-  <si>
-    <t>96938d21-7fb2-11ea-ba73-c97a35e85484</t>
-  </si>
-  <si>
-    <t>10f59d50-82f2-11ea-821a-a1813ece7f73</t>
-  </si>
-  <si>
-    <t>UserAuthorsComment</t>
-  </si>
-  <si>
-    <t>17776aa0-82f2-11ea-821a-a1813ece7f73</t>
-  </si>
-  <si>
-    <t>CommentReferencesPost</t>
-  </si>
-  <si>
-    <t>dda294d0-84b8-11ea-8f4d-0b62bb8cf8ca</t>
-  </si>
-  <si>
-    <t>UserGivesFeedback</t>
-  </si>
-  <si>
-    <t>8ad49d90-efaa-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>ThreadHasMessages</t>
-  </si>
-  <si>
-    <t>efec52d4-7fb2-11ea-ba73-c97a35e85484</t>
-  </si>
-  <si>
-    <t>d15d27a0-7fb6-11ea-b6ca-71d27d0acee3</t>
-  </si>
-  <si>
-    <t>d16bf4b0-7fb6-11ea-b6ca-71d27d0acee3</t>
-  </si>
-  <si>
-    <t>56d2cde0-7fb7-11ea-b6ca-71d27d0acee3</t>
-  </si>
-  <si>
-    <t>b6239c20-80e3-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>bd1653b0-80e3-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>c33a2280-80e3-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>e3b342c0-8134-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>ce5f8570-811e-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>a5ed67f0-811f-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>eb7fe190-811e-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>e2868490-811e-11ea-a764-5d61b98a5ce8</t>
-  </si>
-  <si>
-    <t>c21b14c1-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b14c2-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b14c3-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b14c4-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b14c5-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b14c6-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b14c7-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b3bd0-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>d117efa0-efb4-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>dd9961f0-efb4-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>780bf4f0-efb5-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>93978040-efb5-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>992e2a40-efb5-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>b6ab7370-efb5-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b3bd2-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b3bd4-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b3bd5-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>c21b3bd6-f16f-11ea-a722-4d53fdda74f6</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>dbVendor</t>
-  </si>
-  <si>
-    <t>dbVersion</t>
-  </si>
-  <si>
-    <t>storageEngineName</t>
-  </si>
-  <si>
-    <t>validationLevel</t>
-  </si>
-  <si>
-    <t>validationAction</t>
-  </si>
-  <si>
-    <t>locale</t>
-  </si>
-  <si>
-    <t>strength</t>
-  </si>
-  <si>
-    <t>caseFirst</t>
-  </si>
-  <si>
-    <t>alternate</t>
-  </si>
-  <si>
-    <t>maxVariable</t>
-  </si>
-  <si>
-    <t>relationshipType</t>
-  </si>
-  <si>
-    <t>parentCardinality</t>
-  </si>
-  <si>
-    <t>childCardinality</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>gridFS</t>
-  </si>
-  <si>
-    <t>refType</t>
-  </si>
-  <si>
-    <t>v2.6</t>
-  </si>
-  <si>
-    <t>af</t>
-  </si>
-  <si>
-    <t>1-Primary</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>non-ignorable</t>
-  </si>
-  <si>
-    <t>Null</t>
-  </si>
-  <si>
-    <t>internal</t>
-  </si>
-  <si>
-    <t>v3.0</t>
-  </si>
-  <si>
-    <t>MMAPv1</t>
-  </si>
-  <si>
-    <t>Strict</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>2-Secondary</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>shifted</t>
-  </si>
-  <si>
-    <t>punct</t>
-  </si>
-  <si>
-    <t>date-time</t>
-  </si>
-  <si>
-    <t>integer32</t>
-  </si>
-  <si>
-    <t>chunks</t>
-  </si>
-  <si>
-    <t>v3.2</t>
-  </si>
-  <si>
-    <t>In-Memory</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>3-Tertiary</t>
-  </si>
-  <si>
-    <t>upper</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>Foreign Master</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>allOf</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t>v3.4</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>4-Quaternary</t>
-  </si>
-  <si>
-    <t>0..n</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>not</t>
   </si>
   <si>
     <t>v3.6</t>
@@ -2904,61 +2832,61 @@
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2969,7 +2897,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>51</v>
@@ -2981,28 +2909,28 @@
         <v>53</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>7</v>
@@ -3014,10 +2942,10 @@
         <v>7</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -3028,55 +2956,55 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>129</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>404</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3087,40 +3015,40 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>117</v>
@@ -3129,24 +3057,24 @@
         <v>435</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -3158,10 +3086,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>7</v>
@@ -3176,22 +3104,22 @@
         <v>7</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>7</v>
@@ -3199,13 +3127,13 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>584</v>
+        <v>660</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -3217,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
@@ -3235,16 +3163,16 @@
         <v>7</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>412</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>7</v>
@@ -3264,7 +3192,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -3276,7 +3204,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
@@ -3300,7 +3228,7 @@
         <v>7</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>7</v>
@@ -3335,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>7</v>
@@ -3376,13 +3304,13 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
@@ -3394,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>7</v>
@@ -3418,7 +3346,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>7</v>
@@ -3453,7 +3381,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>7</v>
@@ -3477,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>7</v>
@@ -3494,7 +3422,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -3512,7 +3440,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>7</v>
@@ -3536,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>7</v>
@@ -3553,7 +3481,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -3571,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>7</v>
@@ -3612,7 +3540,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -3630,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>7</v>
@@ -3671,7 +3599,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -3689,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>7</v>
@@ -3730,7 +3658,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -3748,7 +3676,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>7</v>
@@ -3789,7 +3717,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -3807,7 +3735,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>7</v>
@@ -3848,7 +3776,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -3866,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>7</v>
@@ -3907,7 +3835,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>7</v>
@@ -3925,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>7</v>
@@ -3966,7 +3894,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>7</v>
@@ -3984,7 +3912,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>7</v>
@@ -4025,7 +3953,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>7</v>
@@ -4043,7 +3971,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>7</v>
@@ -4084,7 +4012,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -4102,7 +4030,7 @@
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>7</v>
@@ -4161,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>7</v>
@@ -4220,7 +4148,7 @@
         <v>7</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>7</v>
@@ -4279,7 +4207,7 @@
         <v>7</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>7</v>
@@ -4338,7 +4266,7 @@
         <v>7</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>7</v>
@@ -4397,7 +4325,7 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>7</v>
@@ -4456,7 +4384,7 @@
         <v>7</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>7</v>
@@ -4515,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>7</v>
@@ -4574,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>7</v>
@@ -4633,7 +4561,7 @@
         <v>7</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>7</v>
@@ -4692,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>7</v>
@@ -4751,7 +4679,7 @@
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>7</v>
@@ -4810,7 +4738,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>7</v>
@@ -4869,7 +4797,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>7</v>
@@ -4928,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>7</v>
@@ -4987,7 +4915,7 @@
         <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>7</v>
@@ -5046,7 +4974,7 @@
         <v>7</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>7</v>
@@ -5105,7 +5033,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>7</v>
@@ -5164,7 +5092,7 @@
         <v>7</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>7</v>
@@ -5223,7 +5151,7 @@
         <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>7</v>
@@ -5282,7 +5210,7 @@
         <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>7</v>
@@ -5341,7 +5269,7 @@
         <v>7</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>7</v>
@@ -5400,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>7</v>
@@ -5459,7 +5387,7 @@
         <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>7</v>
@@ -5518,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>7</v>
@@ -5577,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>7</v>
@@ -5636,7 +5564,7 @@
         <v>7</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>7</v>
@@ -5695,7 +5623,7 @@
         <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>7</v>
@@ -5754,7 +5682,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>7</v>
@@ -5813,7 +5741,7 @@
         <v>7</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>7</v>
@@ -5872,7 +5800,7 @@
         <v>7</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>7</v>
@@ -5931,7 +5859,7 @@
         <v>7</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>7</v>
@@ -5990,7 +5918,7 @@
         <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>7</v>
@@ -6049,7 +5977,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>7</v>
@@ -6108,7 +6036,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>7</v>
@@ -6167,7 +6095,7 @@
         <v>7</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>7</v>
@@ -6226,7 +6154,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>7</v>
@@ -6285,7 +6213,7 @@
         <v>7</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>7</v>
@@ -6344,7 +6272,7 @@
         <v>7</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>7</v>
@@ -6403,7 +6331,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>7</v>
@@ -6462,7 +6390,7 @@
         <v>7</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>7</v>
@@ -6521,7 +6449,7 @@
         <v>7</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>7</v>
@@ -6580,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>7</v>
@@ -6639,7 +6567,7 @@
         <v>7</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>7</v>
@@ -6698,7 +6626,7 @@
         <v>7</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>7</v>
@@ -6757,7 +6685,7 @@
         <v>7</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>7</v>
@@ -6816,7 +6744,7 @@
         <v>7</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>7</v>
@@ -6875,7 +6803,7 @@
         <v>7</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>7</v>
@@ -6934,7 +6862,7 @@
         <v>7</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>7</v>
@@ -6993,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>7</v>
@@ -7052,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>7</v>
@@ -7111,7 +7039,7 @@
         <v>7</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>7</v>
@@ -7170,7 +7098,7 @@
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>7</v>
@@ -7229,7 +7157,7 @@
         <v>7</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>7</v>
@@ -7288,7 +7216,7 @@
         <v>7</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>7</v>
@@ -7347,7 +7275,7 @@
         <v>7</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>7</v>
@@ -7406,7 +7334,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>7</v>
@@ -7465,7 +7393,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>7</v>
@@ -7524,7 +7452,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>7</v>
@@ -7583,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>7</v>
@@ -7642,7 +7570,7 @@
         <v>7</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>7</v>
@@ -7701,7 +7629,7 @@
         <v>7</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>7</v>
@@ -7760,7 +7688,7 @@
         <v>7</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>7</v>
@@ -7819,7 +7747,7 @@
         <v>7</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>7</v>
@@ -7878,7 +7806,7 @@
         <v>7</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>7</v>
@@ -7937,7 +7865,7 @@
         <v>7</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>7</v>
@@ -7996,7 +7924,7 @@
         <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>7</v>
@@ -8055,7 +7983,7 @@
         <v>7</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>7</v>
@@ -8114,7 +8042,7 @@
         <v>7</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>7</v>
@@ -8173,7 +8101,7 @@
         <v>7</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>7</v>
@@ -8232,7 +8160,7 @@
         <v>7</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>7</v>
@@ -8291,7 +8219,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>7</v>
@@ -8350,7 +8278,7 @@
         <v>7</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>7</v>
@@ -8409,7 +8337,7 @@
         <v>7</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>7</v>
@@ -8468,7 +8396,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>7</v>
@@ -8527,7 +8455,7 @@
         <v>7</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>7</v>
@@ -8586,7 +8514,7 @@
         <v>7</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>7</v>
@@ -8645,7 +8573,7 @@
         <v>7</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>7</v>
@@ -8704,7 +8632,7 @@
         <v>7</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>7</v>
@@ -8763,7 +8691,7 @@
         <v>7</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>7</v>
@@ -8822,7 +8750,7 @@
         <v>7</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>7</v>
@@ -8881,7 +8809,7 @@
         <v>7</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>7</v>
@@ -8940,7 +8868,7 @@
         <v>7</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>7</v>
@@ -8999,7 +8927,7 @@
         <v>7</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>799</v>
+        <v>775</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>7</v>
@@ -9058,7 +8986,7 @@
         <v>7</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>7</v>
@@ -9117,7 +9045,7 @@
         <v>7</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>7</v>
@@ -9176,7 +9104,7 @@
         <v>7</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>7</v>
@@ -9235,7 +9163,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>7</v>
@@ -9294,7 +9222,7 @@
         <v>7</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>804</v>
+        <v>780</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>7</v>
@@ -9353,7 +9281,7 @@
         <v>7</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>7</v>
@@ -9412,7 +9340,7 @@
         <v>7</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>7</v>
@@ -9459,7 +9387,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -9498,39 +9426,39 @@
         <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>129</v>
@@ -9542,7 +9470,7 @@
         <v>183</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>49</v>
@@ -9551,7 +9479,7 @@
         <v>169</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>7</v>
@@ -9560,13 +9488,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>129</v>
@@ -9575,10 +9503,10 @@
         <v>57</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>49</v>
@@ -9587,7 +9515,7 @@
         <v>180</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>7</v>
@@ -9596,13 +9524,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>129</v>
@@ -9611,10 +9539,10 @@
         <v>57</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>54</v>
@@ -9623,7 +9551,7 @@
         <v>220</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>7</v>
@@ -9632,34 +9560,34 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>129</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>584</v>
+        <v>57</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>585</v>
+        <v>57</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>586</v>
+        <v>356</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>7</v>
@@ -9668,13 +9596,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>129</v>
@@ -9683,19 +9611,19 @@
         <v>57</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>7</v>
@@ -9704,10 +9632,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -9719,19 +9647,19 @@
         <v>57</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>177</v>
+        <v>563</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>7</v>
@@ -9740,10 +9668,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -9758,7 +9686,7 @@
         <v>111</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>49</v>
@@ -9767,7 +9695,7 @@
         <v>171</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>7</v>
@@ -9776,10 +9704,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -9791,10 +9719,10 @@
         <v>57</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>60</v>
@@ -9803,7 +9731,7 @@
         <v>448</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>7</v>
@@ -9812,10 +9740,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -9830,46 +9758,82 @@
         <v>460</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>66</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" sqref="E10">
+    <dataValidation type="list" allowBlank="1" sqref="E10:E11">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E10">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E11">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H10">
+    <dataValidation type="list" allowBlank="1" sqref="H10:H11">
       <formula1>Lists!M2:M6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="H2:H10">
+    <dataValidation type="list" allowBlank="1" sqref="H2:H11">
       <formula1>Lists!M2:M6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K10">
+    <dataValidation type="list" allowBlank="1" sqref="K10:K11">
       <formula1>Lists!N2:N6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="K2:K10">
+    <dataValidation type="list" allowBlank="1" sqref="K2:K11">
       <formula1>Lists!N2:N6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M10">
+    <dataValidation type="list" allowBlank="1" sqref="M10:M11">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M2:M10">
+    <dataValidation type="list" allowBlank="1" sqref="M2:M11">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10069,10 +10033,10 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -10130,10 +10094,10 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -10201,10 +10165,10 @@
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -10289,7 +10253,7 @@
         <v>147</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -10374,10 +10338,10 @@
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -10452,10 +10416,10 @@
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -10530,10 +10494,10 @@
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -10608,10 +10572,10 @@
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -10686,10 +10650,10 @@
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
@@ -10764,7 +10728,7 @@
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>123</v>
@@ -10825,7 +10789,7 @@
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>126</v>
@@ -10888,7 +10852,7 @@
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>131</v>
@@ -10966,7 +10930,7 @@
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>134</v>
@@ -11044,7 +11008,7 @@
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>136</v>
@@ -11105,7 +11069,7 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>139</v>
@@ -11176,7 +11140,7 @@
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>143</v>
@@ -11261,7 +11225,7 @@
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>150</v>
@@ -11349,7 +11313,7 @@
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>154</v>
@@ -11427,7 +11391,7 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>158</v>
@@ -11505,7 +11469,7 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>161</v>
@@ -11583,7 +11547,7 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>164</v>
@@ -11661,7 +11625,7 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>167</v>
@@ -11739,10 +11703,10 @@
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -11760,7 +11724,7 @@
         <v>124</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>7</v>
@@ -11808,10 +11772,10 @@
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -11871,10 +11835,10 @@
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -11949,10 +11913,10 @@
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>7</v>
@@ -12027,10 +11991,10 @@
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>7</v>
@@ -12105,10 +12069,10 @@
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>7</v>
@@ -12166,10 +12130,10 @@
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>7</v>
@@ -12229,10 +12193,10 @@
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>7</v>
@@ -12307,10 +12271,10 @@
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>7</v>
@@ -12385,10 +12349,10 @@
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>7</v>
@@ -12400,10 +12364,10 @@
         <v>7</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="N33" s="4" t="b">
         <v>1</v>
@@ -12423,10 +12387,10 @@
       <c r="AQ33" s="4"/>
       <c r="AR33" s="4"/>
       <c r="AS33" s="4" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -13212,7 +13176,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV179"/>
+  <dimension ref="A1:AV159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -14805,13 +14769,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>7</v>
@@ -16546,7 +16510,7 @@
         <v>57</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>129</v>
@@ -16573,10 +16537,10 @@
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>54</v>
@@ -16594,7 +16558,7 @@
         <v>140</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>7</v>
@@ -16644,10 +16608,10 @@
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>54</v>
@@ -16698,10 +16662,10 @@
         <v>7</v>
       </c>
       <c r="Y47" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA47" s="4"/>
       <c r="AD47" s="4"/>
@@ -16716,10 +16680,10 @@
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
@@ -16787,10 +16751,10 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>54</v>
@@ -16859,10 +16823,10 @@
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>54</v>
@@ -16928,10 +16892,10 @@
     </row>
     <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>54</v>
@@ -16949,7 +16913,7 @@
         <v>132</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>7</v>
@@ -17006,10 +16970,10 @@
     </row>
     <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>54</v>
@@ -17027,7 +16991,7 @@
         <v>132</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>7</v>
@@ -17084,10 +17048,10 @@
     </row>
     <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>54</v>
@@ -17105,7 +17069,7 @@
         <v>132</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>7</v>
@@ -17162,10 +17126,10 @@
     </row>
     <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>54</v>
@@ -17183,7 +17147,7 @@
         <v>132</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>7</v>
@@ -17240,7 +17204,7 @@
     </row>
     <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>116</v>
@@ -17261,7 +17225,7 @@
         <v>117</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>7</v>
@@ -17282,7 +17246,7 @@
         <v>7</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>7</v>
@@ -17306,7 +17270,7 @@
     </row>
     <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>112</v>
@@ -17327,7 +17291,7 @@
         <v>113</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>7</v>
@@ -17369,7 +17333,7 @@
     </row>
     <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>120</v>
@@ -17390,7 +17354,7 @@
         <v>117</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>7</v>
@@ -17435,10 +17399,10 @@
     </row>
     <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -17456,7 +17420,7 @@
         <v>132</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>7</v>
@@ -17513,10 +17477,10 @@
     </row>
     <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -17574,10 +17538,10 @@
     </row>
     <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>57</v>
@@ -17645,10 +17609,10 @@
     </row>
     <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>57</v>
@@ -17730,10 +17694,10 @@
     </row>
     <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>57</v>
@@ -17818,10 +17782,10 @@
     </row>
     <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>57</v>
@@ -17896,10 +17860,10 @@
     </row>
     <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>57</v>
@@ -17974,10 +17938,10 @@
     </row>
     <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -18052,10 +18016,10 @@
     </row>
     <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>57</v>
@@ -18130,10 +18094,10 @@
     </row>
     <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>57</v>
@@ -18208,10 +18172,10 @@
     </row>
     <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>57</v>
@@ -18229,7 +18193,7 @@
         <v>132</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>7</v>
@@ -18286,10 +18250,10 @@
     </row>
     <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>57</v>
@@ -18307,7 +18271,7 @@
         <v>132</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>7</v>
@@ -18343,7 +18307,7 @@
         <v>7</v>
       </c>
       <c r="X69" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y69" s="4" t="s">
         <v>7</v>
@@ -18364,10 +18328,10 @@
     </row>
     <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>57</v>
@@ -18376,7 +18340,7 @@
         <v>58</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -18391,16 +18355,16 @@
       <c r="AP70" s="4"/>
       <c r="AQ70" s="4"/>
       <c r="AR70" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AS70" s="4"/>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>57</v>
@@ -18409,16 +18373,16 @@
         <v>58</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H71" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J71" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="K71" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -18442,10 +18406,10 @@
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>57</v>
@@ -18502,7 +18466,7 @@
         <v>7</v>
       </c>
       <c r="Y72" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z72" s="4" t="s">
         <v>7</v>
@@ -18520,10 +18484,10 @@
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>57</v>
@@ -18541,7 +18505,7 @@
         <v>132</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>7</v>
@@ -18598,10 +18562,10 @@
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>57</v>
@@ -18619,7 +18583,7 @@
         <v>132</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>7</v>
@@ -18676,10 +18640,10 @@
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>57</v>
@@ -18697,7 +18661,7 @@
         <v>124</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>7</v>
@@ -18745,10 +18709,10 @@
     </row>
     <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>57</v>
@@ -18763,10 +18727,10 @@
         <v>7</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>7</v>
@@ -18790,14 +18754,14 @@
         <v>7</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X76" s="4"/>
       <c r="Y76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z76" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA76" s="4"/>
       <c r="AD76" s="4"/>
@@ -18812,10 +18776,10 @@
     </row>
     <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>57</v>
@@ -18830,10 +18794,10 @@
         <v>7</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>7</v>
@@ -18857,14 +18821,14 @@
         <v>7</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X77" s="4"/>
       <c r="Y77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z77" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA77" s="4"/>
       <c r="AD77" s="4"/>
@@ -18879,10 +18843,10 @@
     </row>
     <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>57</v>
@@ -18900,7 +18864,7 @@
         <v>124</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>7</v>
@@ -18948,10 +18912,10 @@
     </row>
     <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>57</v>
@@ -18966,10 +18930,10 @@
         <v>7</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>7</v>
@@ -18993,14 +18957,14 @@
         <v>7</v>
       </c>
       <c r="T79" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X79" s="4"/>
       <c r="Y79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z79" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA79" s="4"/>
       <c r="AD79" s="4"/>
@@ -19015,10 +18979,10 @@
     </row>
     <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>57</v>
@@ -19033,10 +18997,10 @@
         <v>7</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>7</v>
@@ -19060,14 +19024,14 @@
         <v>7</v>
       </c>
       <c r="T80" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X80" s="4"/>
       <c r="Y80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z80" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA80" s="4"/>
       <c r="AD80" s="4"/>
@@ -19082,10 +19046,10 @@
     </row>
     <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>57</v>
@@ -19100,10 +19064,10 @@
         <v>7</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>7</v>
@@ -19127,14 +19091,14 @@
         <v>7</v>
       </c>
       <c r="T81" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="X81" s="4"/>
       <c r="Y81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z81" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA81" s="4"/>
       <c r="AD81" s="4"/>
@@ -19149,10 +19113,10 @@
     </row>
     <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>57</v>
@@ -19170,7 +19134,7 @@
         <v>124</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>7</v>
@@ -19218,10 +19182,10 @@
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>57</v>
@@ -19239,7 +19203,7 @@
         <v>132</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>7</v>
@@ -19275,13 +19239,13 @@
         <v>7</v>
       </c>
       <c r="X83" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z83" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AA83" s="4"/>
       <c r="AD83" s="4"/>
@@ -19296,10 +19260,10 @@
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>57</v>
@@ -19317,7 +19281,7 @@
         <v>132</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>7</v>
@@ -19353,13 +19317,13 @@
         <v>7</v>
       </c>
       <c r="X84" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z84" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA84" s="4"/>
       <c r="AD84" s="4"/>
@@ -19374,10 +19338,10 @@
     </row>
     <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>57</v>
@@ -19395,7 +19359,7 @@
         <v>132</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>7</v>
@@ -19431,13 +19395,13 @@
         <v>7</v>
       </c>
       <c r="X85" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z85" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA85" s="4"/>
       <c r="AD85" s="4"/>
@@ -19452,10 +19416,10 @@
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>57</v>
@@ -19473,7 +19437,7 @@
         <v>132</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>7</v>
@@ -19509,13 +19473,13 @@
         <v>7</v>
       </c>
       <c r="X86" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z86" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA86" s="4"/>
       <c r="AD86" s="4"/>
@@ -19530,10 +19494,10 @@
     </row>
     <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>57</v>
@@ -19551,7 +19515,7 @@
         <v>132</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>7</v>
@@ -19587,13 +19551,13 @@
         <v>7</v>
       </c>
       <c r="X87" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z87" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA87" s="4"/>
       <c r="AD87" s="4"/>
@@ -19608,10 +19572,10 @@
     </row>
     <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>57</v>
@@ -19620,16 +19584,16 @@
         <v>58</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -19653,10 +19617,10 @@
     </row>
     <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>57</v>
@@ -19674,7 +19638,7 @@
         <v>132</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>7</v>
@@ -19713,7 +19677,7 @@
         <v>7</v>
       </c>
       <c r="Y89" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z89" s="4" t="s">
         <v>7</v>
@@ -19731,10 +19695,10 @@
     </row>
     <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>57</v>
@@ -19752,7 +19716,7 @@
         <v>132</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>7</v>
@@ -19809,10 +19773,10 @@
     </row>
     <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>57</v>
@@ -19830,7 +19794,7 @@
         <v>113</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>7</v>
@@ -19845,7 +19809,7 @@
         <v>57</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="R91" s="4" t="s">
         <v>129</v>
@@ -20037,7 +20001,7 @@
         <v>7</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>367</v>
@@ -20064,14 +20028,14 @@
         <v>7</v>
       </c>
       <c r="T94" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X94" s="4"/>
       <c r="Y94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z94" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA94" s="4"/>
       <c r="AD94" s="4"/>
@@ -20104,7 +20068,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>370</v>
@@ -20131,14 +20095,14 @@
         <v>7</v>
       </c>
       <c r="T95" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X95" s="4"/>
       <c r="Y95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z95" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA95" s="4"/>
       <c r="AD95" s="4"/>
@@ -20171,7 +20135,7 @@
         <v>7</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>373</v>
@@ -20198,14 +20162,14 @@
         <v>7</v>
       </c>
       <c r="T96" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X96" s="4"/>
       <c r="Y96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z96" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA96" s="4"/>
       <c r="AD96" s="4"/>
@@ -20238,7 +20202,7 @@
         <v>7</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>376</v>
@@ -20265,14 +20229,14 @@
         <v>7</v>
       </c>
       <c r="T97" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X97" s="4"/>
       <c r="Y97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z97" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA97" s="4"/>
       <c r="AD97" s="4"/>
@@ -20305,7 +20269,7 @@
         <v>7</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>379</v>
@@ -20332,7 +20296,7 @@
         <v>7</v>
       </c>
       <c r="T98" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="X98" s="4"/>
       <c r="Y98" s="4" t="s">
@@ -20480,13 +20444,13 @@
         <v>7</v>
       </c>
       <c r="X100" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z100" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA100" s="4"/>
       <c r="AD100" s="4"/>
@@ -20558,13 +20522,13 @@
         <v>7</v>
       </c>
       <c r="X101" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z101" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA101" s="4"/>
       <c r="AD101" s="4"/>
@@ -20636,13 +20600,13 @@
         <v>7</v>
       </c>
       <c r="X102" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z102" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA102" s="4"/>
       <c r="AD102" s="4"/>
@@ -20714,7 +20678,7 @@
         <v>7</v>
       </c>
       <c r="X103" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y103" s="4" t="s">
         <v>7</v>
@@ -20792,7 +20756,7 @@
         <v>7</v>
       </c>
       <c r="X104" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y104" s="4" t="s">
         <v>7</v>
@@ -20903,7 +20867,7 @@
         <v>58</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -20936,13 +20900,13 @@
         <v>58</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>407</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K107" s="4" t="s">
         <v>408</v>
@@ -21059,13 +21023,13 @@
         <v>58</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>416</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K109" s="4" t="s">
         <v>417</v>
@@ -21967,7 +21931,7 @@
         <v>57</v>
       </c>
       <c r="Q121" s="4" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="R121" s="4" t="s">
         <v>129</v>
@@ -21997,7 +21961,7 @@
         <v>451</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>60</v>
@@ -22058,7 +22022,7 @@
         <v>452</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>60</v>
@@ -22129,7 +22093,7 @@
         <v>453</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>60</v>
@@ -22214,7 +22178,7 @@
         <v>454</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>60</v>
@@ -22302,7 +22266,7 @@
         <v>455</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>60</v>
@@ -22380,7 +22344,7 @@
         <v>456</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>60</v>
@@ -22458,7 +22422,7 @@
         <v>457</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>60</v>
@@ -22536,7 +22500,7 @@
         <v>458</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>60</v>
@@ -22614,7 +22578,7 @@
         <v>459</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>60</v>
@@ -23130,7 +23094,7 @@
         <v>57</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>358</v>
+        <v>477</v>
       </c>
       <c r="R137" s="4" t="s">
         <v>129</v>
@@ -23157,10 +23121,10 @@
     </row>
     <row r="138" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>63</v>
@@ -23178,7 +23142,7 @@
         <v>132</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M138" s="4" t="s">
         <v>7</v>
@@ -23235,10 +23199,10 @@
     </row>
     <row r="139" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>63</v>
@@ -23256,7 +23220,7 @@
         <v>132</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M139" s="4" t="s">
         <v>7</v>
@@ -23313,10 +23277,10 @@
     </row>
     <row r="140" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>63</v>
@@ -23331,26 +23295,40 @@
         <v>7</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>137</v>
+        <v>486</v>
       </c>
       <c r="M140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N140" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="R140" s="4"/>
+      <c r="P140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R140" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="S140" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="T140" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="X140" s="4"/>
       <c r="Y140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AA140" s="4"/>
@@ -23359,25 +23337,17 @@
       <c r="AK140" s="4"/>
       <c r="AL140" s="4"/>
       <c r="AM140" s="4"/>
-      <c r="AN140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP140" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AP140" s="4"/>
       <c r="AQ140" s="4"/>
       <c r="AR140" s="4"/>
       <c r="AS140" s="4"/>
     </row>
     <row r="141" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>63</v>
@@ -23392,10 +23362,10 @@
         <v>7</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>141</v>
+        <v>489</v>
       </c>
       <c r="M141" s="4" t="s">
         <v>7</v>
@@ -23418,25 +23388,20 @@
       <c r="S141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4" t="s">
+      <c r="T141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AA141" s="4"/>
       <c r="AD141" s="4"/>
       <c r="AF141" s="4"/>
-      <c r="AI141" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ141" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK141" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL141" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="AK141" s="4"/>
+      <c r="AL141" s="4"/>
       <c r="AM141" s="4"/>
       <c r="AP141" s="4"/>
       <c r="AQ141" s="4"/>
@@ -23445,10 +23410,10 @@
     </row>
     <row r="142" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>63</v>
@@ -23456,17 +23421,20 @@
       <c r="D142" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="E142" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="H142" s="4" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>146</v>
+        <v>492</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="N142" s="4" t="b">
         <v>0</v>
@@ -23486,40 +23454,30 @@
       <c r="S142" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T142" s="4">
-        <v>0</v>
-      </c>
-      <c r="X142" s="4"/>
+      <c r="T142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X142" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="Y142" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z142" s="4">
-        <v>35.26</v>
-      </c>
-      <c r="AA142" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB142" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC142" s="4">
-        <v>-180</v>
-      </c>
-      <c r="AD142" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE142" s="4">
-        <v>180</v>
-      </c>
-      <c r="AF142" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG142" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH142" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="Z142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA142" s="4"/>
+      <c r="AD142" s="4"/>
+      <c r="AF142" s="4"/>
       <c r="AK142" s="4"/>
       <c r="AL142" s="4"/>
       <c r="AM142" s="4"/>
@@ -23530,34 +23488,34 @@
     </row>
     <row r="143" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>490</v>
+        <v>112</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
       <c r="M143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N143" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" s="4" t="b">
         <v>0</v>
@@ -23574,40 +23532,15 @@
       <c r="S143" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T143" s="4">
-        <v>0</v>
-      </c>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z143" s="4">
-        <v>-32.83</v>
-      </c>
-      <c r="AA143" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB143" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC143" s="4">
-        <v>-90</v>
-      </c>
-      <c r="AD143" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE143" s="4">
-        <v>90</v>
-      </c>
-      <c r="AF143" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG143" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH143" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="X143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA143" s="4"/>
+      <c r="AD143" s="4"/>
+      <c r="AF143" s="4"/>
       <c r="AK143" s="4"/>
       <c r="AL143" s="4"/>
       <c r="AM143" s="4"/>
@@ -23618,16 +23551,16 @@
     </row>
     <row r="144" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>492</v>
+        <v>116</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>7</v>
@@ -23636,10 +23569,10 @@
         <v>7</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>155</v>
+        <v>496</v>
       </c>
       <c r="M144" s="4" t="s">
         <v>7</v>
@@ -23665,20 +23598,8 @@
       <c r="T144" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U144" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V144" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W144" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="X144" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="Y144" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="Z144" s="4" t="s">
         <v>7</v>
@@ -23696,16 +23617,16 @@
     </row>
     <row r="145" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>494</v>
+        <v>120</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>7</v>
@@ -23714,16 +23635,16 @@
         <v>7</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>159</v>
+        <v>498</v>
       </c>
       <c r="M145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N145" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" s="4" t="b">
         <v>0</v>
@@ -23743,19 +23664,7 @@
       <c r="T145" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W145" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="X145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z145" s="4" t="s">
@@ -23774,16 +23683,16 @@
     </row>
     <row r="146" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>7</v>
@@ -23792,48 +23701,33 @@
         <v>7</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="M146" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N146" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146" s="4" t="b">
         <v>0</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="S146" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W146" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="X146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y146" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z146" s="4" t="s">
@@ -23852,16 +23746,16 @@
     </row>
     <row r="147" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>498</v>
+        <v>175</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>7</v>
@@ -23873,13 +23767,13 @@
         <v>132</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>165</v>
+        <v>503</v>
       </c>
       <c r="M147" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N147" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" s="4" t="b">
         <v>0</v>
@@ -23930,66 +23824,51 @@
     </row>
     <row r="148" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C148" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N148" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O148" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P148" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K148" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N148" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O148" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P148" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="Q148" s="4" t="s">
-        <v>7</v>
+        <v>460</v>
       </c>
       <c r="R148" s="4" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="S148" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W148" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="X148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y148" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z148" s="4" t="s">
@@ -24008,16 +23887,16 @@
     </row>
     <row r="149" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>7</v>
@@ -24026,10 +23905,10 @@
         <v>7</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M149" s="4" t="s">
         <v>7</v>
@@ -24053,11 +23932,22 @@
         <v>7</v>
       </c>
       <c r="T149" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="X149" s="4"/>
+        <v>509</v>
+      </c>
+      <c r="U149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X149" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="Y149" s="4" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="Z149" s="4" t="s">
         <v>7</v>
@@ -24075,16 +23965,16 @@
     </row>
     <row r="150" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>7</v>
@@ -24093,16 +23983,16 @@
         <v>7</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="M150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="N150" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O150" s="4" t="b">
         <v>0</v>
@@ -24119,13 +24009,8 @@
       <c r="S150" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z150" s="4" t="s">
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AA150" s="4"/>
@@ -24134,17 +24019,25 @@
       <c r="AK150" s="4"/>
       <c r="AL150" s="4"/>
       <c r="AM150" s="4"/>
-      <c r="AP150" s="4"/>
+      <c r="AN150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP150" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ150" s="4"/>
       <c r="AR150" s="4"/>
       <c r="AS150" s="4"/>
     </row>
     <row r="151" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>112</v>
+        <v>515</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>66</v>
@@ -24162,7 +24055,7 @@
         <v>113</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="M151" s="4" t="s">
         <v>7</v>
@@ -24204,10 +24097,10 @@
     </row>
     <row r="152" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>116</v>
+        <v>517</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>66</v>
@@ -24222,10 +24115,10 @@
         <v>7</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>510</v>
+        <v>211</v>
       </c>
       <c r="M152" s="4" t="s">
         <v>7</v>
@@ -24251,11 +24144,23 @@
       <c r="T152" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="U152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W152" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="X152" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="Y152" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="Z152" s="4" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="AA152" s="4"/>
       <c r="AD152" s="4"/>
@@ -24270,10 +24175,10 @@
     </row>
     <row r="153" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>120</v>
+        <v>519</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>66</v>
@@ -24288,10 +24193,10 @@
         <v>7</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>512</v>
+        <v>206</v>
       </c>
       <c r="M153" s="4" t="s">
         <v>7</v>
@@ -24317,7 +24222,19 @@
       <c r="T153" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="U153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W153" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="X153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y153" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z153" s="4" t="s">
@@ -24336,10 +24253,10 @@
     </row>
     <row r="154" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>175</v>
+        <v>521</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>66</v>
@@ -24357,7 +24274,7 @@
         <v>132</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>514</v>
+        <v>208</v>
       </c>
       <c r="M154" s="4" t="s">
         <v>7</v>
@@ -24414,10 +24331,10 @@
     </row>
     <row r="155" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>66</v>
@@ -24432,10 +24349,10 @@
         <v>7</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>517</v>
+        <v>7</v>
       </c>
       <c r="M155" s="4" t="s">
         <v>7</v>
@@ -24446,22 +24363,12 @@
       <c r="O155" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P155" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q155" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="R155" s="4" t="s">
-        <v>129</v>
-      </c>
+      <c r="R155" s="4"/>
       <c r="S155" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z155" s="4" t="s">
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AA155" s="4"/>
@@ -24470,17 +24377,25 @@
       <c r="AK155" s="4"/>
       <c r="AL155" s="4"/>
       <c r="AM155" s="4"/>
-      <c r="AP155" s="4"/>
+      <c r="AN155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP155" s="4" t="b">
+        <v>0</v>
+      </c>
       <c r="AQ155" s="4"/>
       <c r="AR155" s="4"/>
       <c r="AS155" s="4"/>
     </row>
     <row r="156" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>123</v>
+        <v>525</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>66</v>
@@ -24495,10 +24410,10 @@
         <v>7</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="M156" s="4" t="s">
         <v>7</v>
@@ -24509,12 +24424,22 @@
       <c r="O156" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="R156" s="4"/>
+      <c r="P156" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R156" s="4" t="s">
+        <v>129</v>
+      </c>
       <c r="S156" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="X156" s="4"/>
-      <c r="Y156" s="4" t="s">
+      <c r="X156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z156" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AA156" s="4"/>
@@ -24523,25 +24448,17 @@
       <c r="AK156" s="4"/>
       <c r="AL156" s="4"/>
       <c r="AM156" s="4"/>
-      <c r="AN156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP156" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="AP156" s="4"/>
       <c r="AQ156" s="4"/>
       <c r="AR156" s="4"/>
       <c r="AS156" s="4"/>
     </row>
     <row r="157" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>126</v>
+        <v>527</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>66</v>
@@ -24556,10 +24473,10 @@
         <v>7</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="M157" s="4" t="s">
         <v>7</v>
@@ -24571,18 +24488,33 @@
         <v>0</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="Q157" s="4" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="R157" s="4" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="S157" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="T157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W157" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="X157" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y157" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z157" s="4" t="s">
@@ -24601,10 +24533,10 @@
     </row>
     <row r="158" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>131</v>
+        <v>529</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>66</v>
@@ -24677,12 +24609,12 @@
       <c r="AR158" s="4"/>
       <c r="AS158" s="4"/>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>134</v>
+        <v>531</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>66</v>
@@ -24693,17 +24625,11 @@
       <c r="E159" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H159" s="4" t="s">
-        <v>7</v>
+      <c r="I159" s="4" t="s">
+        <v>532</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M159" s="4" t="s">
-        <v>7</v>
+        <v>533</v>
       </c>
       <c r="N159" s="4" t="b">
         <v>1</v>
@@ -24711,39 +24637,8 @@
       <c r="O159" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="P159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z159" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="R159" s="4"/>
+      <c r="X159" s="4"/>
       <c r="AA159" s="4"/>
       <c r="AD159" s="4"/>
       <c r="AF159" s="4"/>
@@ -24753,1545 +24648,85 @@
       <c r="AP159" s="4"/>
       <c r="AQ159" s="4"/>
       <c r="AR159" s="4"/>
-      <c r="AS159" s="4"/>
-    </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K160" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N160" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O160" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R160" s="4"/>
-      <c r="S160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X160" s="4"/>
-      <c r="Y160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA160" s="4"/>
-      <c r="AD160" s="4"/>
-      <c r="AF160" s="4"/>
-      <c r="AK160" s="4"/>
-      <c r="AL160" s="4"/>
-      <c r="AM160" s="4"/>
-      <c r="AN160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP160" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ160" s="4"/>
-      <c r="AR160" s="4"/>
-      <c r="AS160" s="4"/>
-    </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K161" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="M161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N161" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O161" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X161" s="4"/>
-      <c r="Y161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA161" s="4"/>
-      <c r="AD161" s="4"/>
-      <c r="AF161" s="4"/>
-      <c r="AI161" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ161" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK161" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL161" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM161" s="4"/>
-      <c r="AP161" s="4"/>
-      <c r="AQ161" s="4"/>
-      <c r="AR161" s="4"/>
-      <c r="AS161" s="4"/>
-    </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M162" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T162" s="4">
-        <v>0</v>
-      </c>
-      <c r="X162" s="4"/>
-      <c r="Y162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z162" s="4">
-        <v>35.26</v>
-      </c>
-      <c r="AA162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB162" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC162" s="4">
-        <v>-180</v>
-      </c>
-      <c r="AD162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE162" s="4">
-        <v>180</v>
-      </c>
-      <c r="AF162" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK162" s="4"/>
-      <c r="AL162" s="4"/>
-      <c r="AM162" s="4"/>
-      <c r="AP162" s="4"/>
-      <c r="AQ162" s="4"/>
-      <c r="AR162" s="4"/>
-      <c r="AS162" s="4"/>
-    </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="M163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T163" s="4">
-        <v>0</v>
-      </c>
-      <c r="X163" s="4"/>
-      <c r="Y163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z163" s="4">
-        <v>-32.83</v>
-      </c>
-      <c r="AA163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB163" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC163" s="4">
-        <v>-90</v>
-      </c>
-      <c r="AD163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE163" s="4">
-        <v>90</v>
-      </c>
-      <c r="AF163" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK163" s="4"/>
-      <c r="AL163" s="4"/>
-      <c r="AM163" s="4"/>
-      <c r="AP163" s="4"/>
-      <c r="AQ163" s="4"/>
-      <c r="AR163" s="4"/>
-      <c r="AS163" s="4"/>
-    </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N164" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O164" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y164" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA164" s="4"/>
-      <c r="AD164" s="4"/>
-      <c r="AF164" s="4"/>
-      <c r="AK164" s="4"/>
-      <c r="AL164" s="4"/>
-      <c r="AM164" s="4"/>
-      <c r="AP164" s="4"/>
-      <c r="AQ164" s="4"/>
-      <c r="AR164" s="4"/>
-      <c r="AS164" s="4"/>
-    </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K165" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="M165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N165" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O165" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA165" s="4"/>
-      <c r="AD165" s="4"/>
-      <c r="AF165" s="4"/>
-      <c r="AK165" s="4"/>
-      <c r="AL165" s="4"/>
-      <c r="AM165" s="4"/>
-      <c r="AP165" s="4"/>
-      <c r="AQ165" s="4"/>
-      <c r="AR165" s="4"/>
-      <c r="AS165" s="4"/>
-    </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J166" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K166" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N166" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O166" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA166" s="4"/>
-      <c r="AD166" s="4"/>
-      <c r="AF166" s="4"/>
-      <c r="AK166" s="4"/>
-      <c r="AL166" s="4"/>
-      <c r="AM166" s="4"/>
-      <c r="AP166" s="4"/>
-      <c r="AQ166" s="4"/>
-      <c r="AR166" s="4"/>
-      <c r="AS166" s="4"/>
-    </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="M167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N167" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O167" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA167" s="4"/>
-      <c r="AD167" s="4"/>
-      <c r="AF167" s="4"/>
-      <c r="AK167" s="4"/>
-      <c r="AL167" s="4"/>
-      <c r="AM167" s="4"/>
-      <c r="AP167" s="4"/>
-      <c r="AQ167" s="4"/>
-      <c r="AR167" s="4"/>
-      <c r="AS167" s="4"/>
-    </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J168" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K168" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="M168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N168" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O168" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA168" s="4"/>
-      <c r="AD168" s="4"/>
-      <c r="AF168" s="4"/>
-      <c r="AK168" s="4"/>
-      <c r="AL168" s="4"/>
-      <c r="AM168" s="4"/>
-      <c r="AP168" s="4"/>
-      <c r="AQ168" s="4"/>
-      <c r="AR168" s="4"/>
-      <c r="AS168" s="4"/>
-    </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J169" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K169" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="M169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N169" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O169" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T169" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="U169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y169" s="4" t="s">
+      <c r="AS159" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="Z169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA169" s="4"/>
-      <c r="AD169" s="4"/>
-      <c r="AF169" s="4"/>
-      <c r="AK169" s="4"/>
-      <c r="AL169" s="4"/>
-      <c r="AM169" s="4"/>
-      <c r="AP169" s="4"/>
-      <c r="AQ169" s="4"/>
-      <c r="AR169" s="4"/>
-      <c r="AS169" s="4"/>
-    </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="AV159" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J170" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K170" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="M170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N170" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="O170" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X170" s="4"/>
-      <c r="Y170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA170" s="4"/>
-      <c r="AD170" s="4"/>
-      <c r="AF170" s="4"/>
-      <c r="AK170" s="4"/>
-      <c r="AL170" s="4"/>
-      <c r="AM170" s="4"/>
-      <c r="AN170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP170" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ170" s="4"/>
-      <c r="AR170" s="4"/>
-      <c r="AS170" s="4"/>
-    </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J171" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N171" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O171" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA171" s="4"/>
-      <c r="AD171" s="4"/>
-      <c r="AF171" s="4"/>
-      <c r="AK171" s="4"/>
-      <c r="AL171" s="4"/>
-      <c r="AM171" s="4"/>
-      <c r="AP171" s="4"/>
-      <c r="AQ171" s="4"/>
-      <c r="AR171" s="4"/>
-      <c r="AS171" s="4"/>
-    </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J172" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K172" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N172" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O172" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y172" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z172" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA172" s="4"/>
-      <c r="AD172" s="4"/>
-      <c r="AF172" s="4"/>
-      <c r="AK172" s="4"/>
-      <c r="AL172" s="4"/>
-      <c r="AM172" s="4"/>
-      <c r="AP172" s="4"/>
-      <c r="AQ172" s="4"/>
-      <c r="AR172" s="4"/>
-      <c r="AS172" s="4"/>
-    </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K173" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N173" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O173" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA173" s="4"/>
-      <c r="AD173" s="4"/>
-      <c r="AF173" s="4"/>
-      <c r="AK173" s="4"/>
-      <c r="AL173" s="4"/>
-      <c r="AM173" s="4"/>
-      <c r="AP173" s="4"/>
-      <c r="AQ173" s="4"/>
-      <c r="AR173" s="4"/>
-      <c r="AS173" s="4"/>
-    </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J174" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K174" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N174" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O174" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z174" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA174" s="4"/>
-      <c r="AD174" s="4"/>
-      <c r="AF174" s="4"/>
-      <c r="AK174" s="4"/>
-      <c r="AL174" s="4"/>
-      <c r="AM174" s="4"/>
-      <c r="AP174" s="4"/>
-      <c r="AQ174" s="4"/>
-      <c r="AR174" s="4"/>
-      <c r="AS174" s="4"/>
-    </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N175" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O175" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R175" s="4"/>
-      <c r="S175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X175" s="4"/>
-      <c r="Y175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA175" s="4"/>
-      <c r="AD175" s="4"/>
-      <c r="AF175" s="4"/>
-      <c r="AK175" s="4"/>
-      <c r="AL175" s="4"/>
-      <c r="AM175" s="4"/>
-      <c r="AN175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP175" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ175" s="4"/>
-      <c r="AR175" s="4"/>
-      <c r="AS175" s="4"/>
-    </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N176" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O176" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P176" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q176" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="R176" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="S176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA176" s="4"/>
-      <c r="AD176" s="4"/>
-      <c r="AF176" s="4"/>
-      <c r="AK176" s="4"/>
-      <c r="AL176" s="4"/>
-      <c r="AM176" s="4"/>
-      <c r="AP176" s="4"/>
-      <c r="AQ176" s="4"/>
-      <c r="AR176" s="4"/>
-      <c r="AS176" s="4"/>
-    </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N177" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O177" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA177" s="4"/>
-      <c r="AD177" s="4"/>
-      <c r="AF177" s="4"/>
-      <c r="AK177" s="4"/>
-      <c r="AL177" s="4"/>
-      <c r="AM177" s="4"/>
-      <c r="AP177" s="4"/>
-      <c r="AQ177" s="4"/>
-      <c r="AR177" s="4"/>
-      <c r="AS177" s="4"/>
-    </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N178" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O178" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="T178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="U178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="X178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA178" s="4"/>
-      <c r="AD178" s="4"/>
-      <c r="AF178" s="4"/>
-      <c r="AK178" s="4"/>
-      <c r="AL178" s="4"/>
-      <c r="AM178" s="4"/>
-      <c r="AP178" s="4"/>
-      <c r="AQ178" s="4"/>
-      <c r="AR178" s="4"/>
-      <c r="AS178" s="4"/>
-    </row>
-    <row r="179" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="N179" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O179" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R179" s="4"/>
-      <c r="X179" s="4"/>
-      <c r="AA179" s="4"/>
-      <c r="AD179" s="4"/>
-      <c r="AF179" s="4"/>
-      <c r="AK179" s="4"/>
-      <c r="AL179" s="4"/>
-      <c r="AM179" s="4"/>
-      <c r="AP179" s="4"/>
-      <c r="AQ179" s="4"/>
-      <c r="AR179" s="4"/>
-      <c r="AS179" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="AV179" s="4" t="s">
-        <v>559</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation type="list" allowBlank="1" sqref="AA10:AA179">
+    <dataValidation type="list" allowBlank="1" sqref="AA10:AA159">
       <formula1>Lists!P2:P6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AA2:AA179">
+    <dataValidation type="list" allowBlank="1" sqref="AA2:AA159">
       <formula1>Lists!P2:P6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD10:AD179">
+    <dataValidation type="list" allowBlank="1" sqref="AD10:AD159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AD2:AD179">
+    <dataValidation type="list" allowBlank="1" sqref="AD2:AD159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AF10:AF179">
+    <dataValidation type="list" allowBlank="1" sqref="AF10:AF159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AF2:AF179">
+    <dataValidation type="list" allowBlank="1" sqref="AF2:AF159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AK10:AM179">
+    <dataValidation type="list" allowBlank="1" sqref="AK10:AM159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AK2:AM179">
+    <dataValidation type="list" allowBlank="1" sqref="AK2:AM159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP10:AP179">
+    <dataValidation type="list" allowBlank="1" sqref="AP10:AP159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AP2:AP179">
+    <dataValidation type="list" allowBlank="1" sqref="AP2:AP159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ179">
+    <dataValidation type="list" allowBlank="1" sqref="AQ10:AQ159">
       <formula1>Lists!Q2:Q4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ179">
+    <dataValidation type="list" allowBlank="1" sqref="AQ2:AQ159">
       <formula1>Lists!Q2:Q4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AR10:AR179">
+    <dataValidation type="list" allowBlank="1" sqref="AR10:AR159">
       <formula1>Lists!R2:R5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AR2:AR179">
+    <dataValidation type="list" allowBlank="1" sqref="AR2:AR159">
       <formula1>Lists!R2:R5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AS10:AS179">
+    <dataValidation type="list" allowBlank="1" sqref="AS10:AS159">
       <formula1>Lists!S2:S4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="AS2:AS179">
+    <dataValidation type="list" allowBlank="1" sqref="AS2:AS159">
       <formula1>Lists!S2:S4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J10:J179">
+    <dataValidation type="list" allowBlank="1" sqref="J10:J159">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J179">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J159">
       <formula1>Lists!A2:A21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N10:O179">
+    <dataValidation type="list" allowBlank="1" sqref="N10:O159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:O179">
+    <dataValidation type="list" allowBlank="1" sqref="N2:O159">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="R10:R179">
+    <dataValidation type="list" allowBlank="1" sqref="R10:R159">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="R2:R179">
+    <dataValidation type="list" allowBlank="1" sqref="R2:R159">
       <formula1>Lists!L2:L4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="X10:X179">
+    <dataValidation type="list" allowBlank="1" sqref="X10:X159">
       <formula1>Lists!O2:O11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="X2:X179">
+    <dataValidation type="list" allowBlank="1" sqref="X2:X159">
       <formula1>Lists!O2:O11</formula1>
     </dataValidation>
   </dataValidations>
@@ -26331,7 +24766,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
@@ -26346,10 +24781,10 @@
         <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>38</v>
